--- a/data/개표현황(읍면동별)[제20대][대통령선거][서울특별시][종로구].xlsx
+++ b/data/개표현황(읍면동별)[제20대][대통령선거][서울특별시][종로구].xlsx
@@ -28,7 +28,7 @@
     <phoneticPr type="noConversion" fontId="1"/>
   </si>
   <si>
-    <t>2025-04-17 16:37:02</t>
+    <t>2025-04-18 09:42:27</t>
     <phoneticPr type="noConversion" fontId="1"/>
   </si>
   <si>
